--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SG0308634\eclipse-workspace\SeleniumBasicMethods1\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SG0308634\Documents\GitHub\SeleniumJavaReusableMethods\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41D17F4-BD19-4B1C-90BA-0283841FFCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260E1738-1AE0-4597-9C79-4F79A350B2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>Username</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Channel</t>
-  </si>
-  <si>
     <t>krazyfox111</t>
   </si>
   <si>
@@ -52,27 +49,6 @@
     <t>a1</t>
   </si>
   <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>a5</t>
-  </si>
-  <si>
-    <t>a6</t>
-  </si>
-  <si>
-    <t>a7</t>
-  </si>
-  <si>
-    <t>a8</t>
-  </si>
-  <si>
     <t>b1</t>
   </si>
   <si>
@@ -97,28 +73,43 @@
     <t>b8</t>
   </si>
   <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>c4</t>
-  </si>
-  <si>
-    <t>c5</t>
-  </si>
-  <si>
-    <t>c6</t>
-  </si>
-  <si>
-    <t>c7</t>
-  </si>
-  <si>
-    <t>c8</t>
+    <t>b9</t>
+  </si>
+  <si>
+    <t>b10</t>
+  </si>
+  <si>
+    <t>b11</t>
+  </si>
+  <si>
+    <t>b12</t>
+  </si>
+  <si>
+    <t>b13</t>
+  </si>
+  <si>
+    <t>b14</t>
+  </si>
+  <si>
+    <t>b15</t>
+  </si>
+  <si>
+    <t>b16</t>
+  </si>
+  <si>
+    <t>b17</t>
+  </si>
+  <si>
+    <t>b18</t>
+  </si>
+  <si>
+    <t>b19</t>
+  </si>
+  <si>
+    <t>b20</t>
+  </si>
+  <si>
+    <t>b21</t>
   </si>
 </sst>
 </file>
@@ -464,120 +455,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -604,19 +666,19 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SG0308634\Documents\GitHub\SeleniumJavaReusableMethods\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260E1738-1AE0-4597-9C79-4F79A350B2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2B1EF2-69A5-4BBF-A7A9-5474A7AE60E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Username</t>
   </si>
@@ -110,6 +110,66 @@
   </si>
   <si>
     <t>b21</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>a9</t>
+  </si>
+  <si>
+    <t>a10</t>
+  </si>
+  <si>
+    <t>a11</t>
+  </si>
+  <si>
+    <t>a12</t>
+  </si>
+  <si>
+    <t>a13</t>
+  </si>
+  <si>
+    <t>a14</t>
+  </si>
+  <si>
+    <t>a15</t>
+  </si>
+  <si>
+    <t>a16</t>
+  </si>
+  <si>
+    <t>a17</t>
+  </si>
+  <si>
+    <t>a18</t>
+  </si>
+  <si>
+    <t>a19</t>
+  </si>
+  <si>
+    <t>a20</t>
+  </si>
+  <si>
+    <t>a21</t>
   </si>
 </sst>
 </file>
@@ -457,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,7 +544,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -492,7 +552,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -500,7 +560,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -508,7 +568,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -516,7 +576,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -524,7 +584,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -532,7 +592,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -540,7 +600,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -548,7 +608,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -556,7 +616,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -564,7 +624,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -572,7 +632,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -580,7 +640,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -588,7 +648,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -596,7 +656,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -604,7 +664,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -612,7 +672,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -620,7 +680,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -628,7 +688,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -636,7 +696,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
